--- a/Task2/Results/GroupByPropertyID/KR.xlsx
+++ b/Task2/Results/GroupByPropertyID/KR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="104">
   <si>
     <t>Property_id</t>
   </si>
@@ -687,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,19 +745,19 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>3102610.22</v>
+        <v>170272.65</v>
       </c>
       <c r="H2">
-        <v>3102610.22</v>
+        <v>14189.3875</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>3102610.22</v>
+        <v>170272.65</v>
       </c>
       <c r="H3">
-        <v>3102610.22</v>
+        <v>14189.3875</v>
       </c>
       <c r="I3">
         <v>52</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -821,16 +821,16 @@
         <v>16</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>56474.88</v>
+        <v>2885.809999999999</v>
       </c>
       <c r="H4">
-        <v>56474.88</v>
+        <v>288.581</v>
       </c>
       <c r="I4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -859,19 +859,19 @@
         <v>16</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>56474.88</v>
+        <v>2885.809999999999</v>
       </c>
       <c r="H5">
-        <v>56474.88</v>
+        <v>288.581</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -897,16 +897,16 @@
         <v>17</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>2029455.49</v>
+        <v>103526.28</v>
       </c>
       <c r="H6">
-        <v>1014727.745</v>
+        <v>5176.314</v>
       </c>
       <c r="I6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -935,19 +935,19 @@
         <v>17</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>2029455.49</v>
+        <v>103526.28</v>
       </c>
       <c r="H7">
-        <v>2029455.49</v>
+        <v>5176.314</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -958,34 +958,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>351</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>42019</v>
+        <v>42363</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>2029455.49</v>
+        <v>185748.44</v>
       </c>
       <c r="H8">
-        <v>2029455.49</v>
+        <v>18574.844</v>
       </c>
       <c r="I8">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1005,28 +1005,28 @@
         <v>42363</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>3958549.18</v>
+        <v>185748.44</v>
       </c>
       <c r="H9">
-        <v>3958549.18</v>
+        <v>18574.844</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>542</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1043,28 +1043,28 @@
         <v>42363</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>3958549.18</v>
+        <v>185748.44</v>
       </c>
       <c r="H10">
-        <v>3958549.18</v>
+        <v>18574.844</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1072,34 +1072,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>549</v>
+        <v>645</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>42363</v>
+        <v>42364</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>3958549.18</v>
+        <v>165195.52</v>
       </c>
       <c r="H11">
-        <v>3958549.18</v>
+        <v>16519.552</v>
       </c>
       <c r="I11">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>718</v>
+        <v>647</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1119,28 +1119,28 @@
         <v>42364</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>3673736.3</v>
+        <v>165195.52</v>
       </c>
       <c r="H12">
-        <v>3673736.3</v>
+        <v>16519.552</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>720</v>
+        <v>653</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1157,28 +1157,28 @@
         <v>42364</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>3673736.3</v>
+        <v>165195.52</v>
       </c>
       <c r="H13">
-        <v>3673736.3</v>
+        <v>16519.552</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1186,31 +1186,31 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>726</v>
+        <v>794</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>42364</v>
+        <v>42020</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>3673736.3</v>
+        <v>58433.18999999999</v>
       </c>
       <c r="H14">
-        <v>3673736.3</v>
+        <v>2921.659499999999</v>
       </c>
       <c r="I14">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>894</v>
+        <v>796</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1233,25 +1233,25 @@
         <v>42020</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>1216365.59</v>
+        <v>58433.18999999999</v>
       </c>
       <c r="H15">
-        <v>608182.7949999999</v>
+        <v>2921.659499999999</v>
       </c>
       <c r="I15">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1262,34 +1262,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>896</v>
+        <v>975</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>42020</v>
+        <v>42133</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>1216365.59</v>
+        <v>75667.38000000002</v>
       </c>
       <c r="H16">
-        <v>1216365.59</v>
+        <v>12611.23</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1300,34 +1300,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>897</v>
+        <v>976</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>42020</v>
+        <v>42133</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>1216365.59</v>
+        <v>75667.38000000002</v>
       </c>
       <c r="H17">
-        <v>1216365.59</v>
+        <v>12611.23</v>
       </c>
       <c r="I17">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1347,25 +1347,25 @@
         <v>42133</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>1659025.24</v>
+        <v>75667.38000000002</v>
       </c>
       <c r="H18">
-        <v>829512.62</v>
+        <v>12611.23</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J18">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>1096</v>
+        <v>1000</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1385,25 +1385,25 @@
         <v>42133</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>1659025.24</v>
+        <v>75667.38000000002</v>
       </c>
       <c r="H19">
-        <v>829512.62</v>
+        <v>12611.23</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J19">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1414,31 +1414,31 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>1119</v>
+        <v>1146</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>42133</v>
+        <v>42017</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G20">
-        <v>1659025.24</v>
+        <v>103526.28</v>
       </c>
       <c r="H20">
-        <v>829512.62</v>
+        <v>6089.781176470588</v>
       </c>
       <c r="I20">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1452,34 +1452,34 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>1120</v>
+        <v>1150</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>42133</v>
+        <v>42017</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>1659025.24</v>
+        <v>103526.28</v>
       </c>
       <c r="H21">
-        <v>829512.62</v>
+        <v>6089.781176470588</v>
       </c>
       <c r="I21">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1490,31 +1490,31 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>1280</v>
+        <v>1301</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>2029455.49</v>
+        <v>103526.28</v>
       </c>
       <c r="H22">
-        <v>2029455.49</v>
+        <v>5176.314</v>
       </c>
       <c r="I22">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1528,34 +1528,34 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>1284</v>
+        <v>1304</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G23">
-        <v>2029455.49</v>
+        <v>103526.28</v>
       </c>
       <c r="H23">
-        <v>2029455.49</v>
+        <v>5176.314</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1566,31 +1566,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>1451</v>
+        <v>1461</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>42018</v>
+        <v>42303</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>2029455.49</v>
+        <v>64262.45</v>
       </c>
       <c r="H24">
-        <v>1014727.745</v>
+        <v>12852.49</v>
       </c>
       <c r="I24">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1604,34 +1604,34 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>1454</v>
+        <v>1474</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>42018</v>
+        <v>42303</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>2029455.49</v>
+        <v>64262.45</v>
       </c>
       <c r="H25">
-        <v>2029455.49</v>
+        <v>12852.49</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1642,31 +1642,31 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>1455</v>
+        <v>1561</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>42018</v>
+        <v>42304</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G26">
-        <v>2029455.49</v>
+        <v>175533.66</v>
       </c>
       <c r="H26">
-        <v>2029455.49</v>
+        <v>14627.805</v>
       </c>
       <c r="I26">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>1630</v>
+        <v>1562</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
@@ -1695,16 +1695,16 @@
         <v>24</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>899674.3</v>
+        <v>175533.66</v>
       </c>
       <c r="H27">
-        <v>899674.3</v>
+        <v>14627.805</v>
       </c>
       <c r="I27">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1718,34 +1718,34 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>1643</v>
+        <v>1585</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G28">
-        <v>899674.3</v>
+        <v>175533.66</v>
       </c>
       <c r="H28">
-        <v>899674.3</v>
+        <v>14627.805</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>1743</v>
+        <v>1586</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1765,25 +1765,25 @@
         <v>42304</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G29">
-        <v>2786532.56</v>
+        <v>175533.66</v>
       </c>
       <c r="H29">
-        <v>1393266.28</v>
+        <v>14627.805</v>
       </c>
       <c r="I29">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1794,31 +1794,31 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>1744</v>
+        <v>1799</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>42304</v>
+        <v>42295</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>2786532.56</v>
+        <v>25428.06</v>
       </c>
       <c r="H30">
-        <v>1393266.28</v>
+        <v>5085.612</v>
       </c>
       <c r="I30">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1832,34 +1832,34 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>1767</v>
+        <v>1825</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>42304</v>
+        <v>42295</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>2786532.56</v>
+        <v>25428.06</v>
       </c>
       <c r="H31">
-        <v>1393266.28</v>
+        <v>5085.612</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1870,34 +1870,34 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>1768</v>
+        <v>1868</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>42304</v>
+        <v>42025</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>2786532.56</v>
+        <v>85408.38</v>
       </c>
       <c r="H32">
-        <v>1393266.28</v>
+        <v>5693.892000000001</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J32">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1908,34 +1908,34 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>2005</v>
+        <v>1873</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>42295</v>
+        <v>42025</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G33">
-        <v>358426.11</v>
+        <v>85408.38</v>
       </c>
       <c r="H33">
-        <v>358426.11</v>
+        <v>5693.892000000001</v>
       </c>
       <c r="I33">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1946,34 +1946,34 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>2033</v>
+        <v>2017</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>42295</v>
+        <v>42086</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G34">
-        <v>358426.11</v>
+        <v>74051.95</v>
       </c>
       <c r="H34">
-        <v>358426.11</v>
+        <v>10578.85</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1984,31 +1984,31 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>2082</v>
+        <v>2052</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2">
-        <v>42025</v>
+        <v>42086</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G35">
-        <v>1387316.79</v>
+        <v>74051.95</v>
       </c>
       <c r="H35">
-        <v>1387316.79</v>
+        <v>10578.85</v>
       </c>
       <c r="I35">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2022,34 +2022,34 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>2087</v>
+        <v>2133</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>42025</v>
+        <v>42110</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>1387316.79</v>
+        <v>316.85</v>
       </c>
       <c r="H36">
-        <v>1387316.79</v>
+        <v>158.425</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2060,34 +2060,34 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>2246</v>
+        <v>2199</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>42086</v>
+        <v>42111</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1353373.82</v>
+        <v>316.85</v>
       </c>
       <c r="H37">
-        <v>1353373.82</v>
+        <v>316.85</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2098,31 +2098,31 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>2284</v>
+        <v>2249</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>42086</v>
+        <v>42027</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G38">
-        <v>1353373.82</v>
+        <v>86681.22</v>
       </c>
       <c r="H38">
-        <v>1353373.82</v>
+        <v>5098.895294117647</v>
       </c>
       <c r="I38">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2136,34 +2136,34 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>2377</v>
+        <v>2251</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>42110</v>
+        <v>42027</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G39">
-        <v>2217.95</v>
+        <v>86681.22</v>
       </c>
       <c r="H39">
-        <v>2217.95</v>
+        <v>5098.895294117647</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2174,34 +2174,34 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>2450</v>
+        <v>2418</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>42111</v>
+        <v>42028</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G40">
-        <v>2217.95</v>
+        <v>292452.8</v>
       </c>
       <c r="H40">
-        <v>2217.95</v>
+        <v>8123.688888888889</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J40">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2212,31 +2212,31 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>2508</v>
+        <v>2419</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>42027</v>
+        <v>42028</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G41">
-        <v>1402166.59</v>
+        <v>292452.8</v>
       </c>
       <c r="H41">
-        <v>1402166.59</v>
+        <v>8123.688888888889</v>
       </c>
       <c r="I41">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2250,34 +2250,34 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>2510</v>
+        <v>2422</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="2">
-        <v>42027</v>
+        <v>42028</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G42">
-        <v>1402166.59</v>
+        <v>292452.8</v>
       </c>
       <c r="H42">
-        <v>1402166.59</v>
+        <v>8123.688888888889</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
-        <v>2696</v>
+        <v>2423</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
@@ -2297,25 +2297,25 @@
         <v>42028</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="G43">
-        <v>4471598.220000001</v>
+        <v>292452.8</v>
       </c>
       <c r="H43">
-        <v>2235799.11</v>
+        <v>8123.688888888889</v>
       </c>
       <c r="I43">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2326,31 +2326,31 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1">
-        <v>2697</v>
+        <v>2764</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="2">
-        <v>42028</v>
+        <v>42029</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>4471598.220000001</v>
+        <v>95833.99000000001</v>
       </c>
       <c r="H44">
-        <v>2235799.11</v>
+        <v>6388.932666666667</v>
       </c>
       <c r="I44">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2364,34 +2364,34 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>2700</v>
+        <v>2768</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="2">
-        <v>42028</v>
+        <v>42029</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G45">
-        <v>4471598.220000001</v>
+        <v>95833.99000000001</v>
       </c>
       <c r="H45">
-        <v>2235799.11</v>
+        <v>6388.932666666667</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>244</v>
+        <v>107</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2402,34 +2402,34 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>2701</v>
+        <v>2936</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="2">
-        <v>42028</v>
+        <v>42095</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>4471598.220000001</v>
+        <v>28226.88</v>
       </c>
       <c r="H46">
-        <v>2235799.11</v>
+        <v>5645.376</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2440,31 +2440,31 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <v>3086</v>
+        <v>2938</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="2">
-        <v>42029</v>
+        <v>42095</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>1569280.39</v>
+        <v>28226.88</v>
       </c>
       <c r="H47">
-        <v>1569280.39</v>
+        <v>5645.376</v>
       </c>
       <c r="I47">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2478,34 +2478,34 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>3090</v>
+        <v>3030</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="2">
-        <v>42029</v>
+        <v>42096</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>1569280.39</v>
+        <v>28226.88</v>
       </c>
       <c r="H48">
-        <v>1569280.39</v>
+        <v>5645.376</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2516,34 +2516,34 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>3280</v>
+        <v>3032</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="2">
-        <v>42095</v>
+        <v>42096</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>397659.12</v>
+        <v>28226.88</v>
       </c>
       <c r="H49">
-        <v>397659.12</v>
+        <v>5645.376</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J49">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -2554,31 +2554,31 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>3282</v>
+        <v>3139</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="2">
-        <v>42095</v>
+        <v>42038</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G50">
-        <v>397659.12</v>
+        <v>146382.89</v>
       </c>
       <c r="H50">
-        <v>397659.12</v>
+        <v>10455.92071428572</v>
       </c>
       <c r="I50">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2592,34 +2592,34 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>3389</v>
+        <v>3167</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="2">
-        <v>42096</v>
+        <v>42038</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>397659.12</v>
+        <v>146382.89</v>
       </c>
       <c r="H51">
-        <v>397659.12</v>
+        <v>10455.92071428572</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2630,34 +2630,34 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>3391</v>
+        <v>3298</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="2">
-        <v>42096</v>
+        <v>42062</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G52">
-        <v>397659.12</v>
+        <v>56685.93</v>
       </c>
       <c r="H52">
-        <v>397659.12</v>
+        <v>3779.062</v>
       </c>
       <c r="I52">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2668,31 +2668,31 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>3519</v>
+        <v>3300</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="2">
-        <v>42038</v>
+        <v>42062</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G53">
-        <v>1598212.26</v>
+        <v>56685.93</v>
       </c>
       <c r="H53">
-        <v>1598212.26</v>
+        <v>3779.062</v>
       </c>
       <c r="I53">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2706,34 +2706,34 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>3547</v>
+        <v>3447</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="2">
-        <v>42038</v>
+        <v>42081</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G54">
-        <v>1598212.26</v>
+        <v>47136.31</v>
       </c>
       <c r="H54">
-        <v>1598212.26</v>
+        <v>7856.051666666666</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J54">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2744,13 +2744,13 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>3695</v>
+        <v>3463</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="2">
-        <v>42062</v>
+        <v>42081</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -2759,19 +2759,19 @@
         <v>22</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G55">
-        <v>1180959.64</v>
+        <v>47136.31</v>
       </c>
       <c r="H55">
-        <v>1180959.64</v>
+        <v>7856.051666666666</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2782,37 +2782,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>3697</v>
+        <v>3550</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="2">
-        <v>42062</v>
+        <v>42081</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56" t="s">
         <v>22</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G56">
-        <v>1180959.64</v>
+        <v>47136.31</v>
       </c>
       <c r="H56">
-        <v>1180959.64</v>
+        <v>7856.051666666666</v>
       </c>
       <c r="I56">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -2820,31 +2820,31 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>3859</v>
+        <v>3553</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="2">
-        <v>42081</v>
+        <v>42084</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G57">
-        <v>987538.59</v>
+        <v>74535.57999999999</v>
       </c>
       <c r="H57">
-        <v>987538.59</v>
+        <v>9316.947499999998</v>
       </c>
       <c r="I57">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2858,34 +2858,34 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>3875</v>
+        <v>3559</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="2">
-        <v>42081</v>
+        <v>42084</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G58">
-        <v>987538.59</v>
+        <v>74535.57999999999</v>
       </c>
       <c r="H58">
-        <v>987538.59</v>
+        <v>9316.947499999998</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2896,37 +2896,37 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>3978</v>
+        <v>3674</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="2">
-        <v>42081</v>
+        <v>42091</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G59">
-        <v>987538.59</v>
+        <v>73450.87999999999</v>
       </c>
       <c r="H59">
-        <v>987538.59</v>
+        <v>12241.81333333333</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -2934,31 +2934,31 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>3981</v>
+        <v>3689</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="2">
-        <v>42084</v>
+        <v>42091</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>1368231.7</v>
+        <v>73450.87999999999</v>
       </c>
       <c r="H60">
-        <v>1368231.7</v>
+        <v>12241.81333333333</v>
       </c>
       <c r="I60">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2972,34 +2972,34 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>3987</v>
+        <v>3780</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="2">
-        <v>42084</v>
+        <v>42097</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>1368231.7</v>
+        <v>413.8</v>
       </c>
       <c r="H61">
-        <v>1368231.7</v>
+        <v>137.9333333333333</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J61">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3010,34 +3010,34 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>4109</v>
+        <v>3878</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>42091</v>
+        <v>42097</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>1347363.12</v>
+        <v>413.8</v>
       </c>
       <c r="H62">
-        <v>1347363.12</v>
+        <v>137.9333333333333</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3048,31 +3048,31 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>4125</v>
+        <v>3902</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="2">
-        <v>42091</v>
+        <v>42099</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
-        <v>1347363.12</v>
+        <v>413.8</v>
       </c>
       <c r="H63">
-        <v>1347363.12</v>
+        <v>413.8</v>
       </c>
       <c r="I63">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3086,31 +3086,31 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>4235</v>
+        <v>3997</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="2">
-        <v>42097</v>
+        <v>42262</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>8276</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>8276</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3124,34 +3124,34 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>4352</v>
+        <v>4093</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="2">
-        <v>42097</v>
+        <v>42308</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>8276</v>
+        <v>113899.32</v>
       </c>
       <c r="H65">
-        <v>8276</v>
+        <v>22779.864</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J65">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3162,34 +3162,34 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>4378</v>
+        <v>4115</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="2">
-        <v>42099</v>
+        <v>42308</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>8276</v>
+        <v>113899.32</v>
       </c>
       <c r="H66">
-        <v>8276</v>
+        <v>22779.864</v>
       </c>
       <c r="I66">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3200,31 +3200,31 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
-        <v>4488</v>
+        <v>4204</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="2">
-        <v>42262</v>
+        <v>42252</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>777.8499999999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>259.2833333333333</v>
       </c>
       <c r="I67">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -3238,34 +3238,34 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
-        <v>4590</v>
+        <v>4207</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="2">
-        <v>42308</v>
+        <v>42252</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68">
-        <v>2183705.02</v>
+        <v>777.8499999999999</v>
       </c>
       <c r="H68">
-        <v>2183705.02</v>
+        <v>259.2833333333333</v>
       </c>
       <c r="I68">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3276,34 +3276,34 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
-        <v>4615</v>
+        <v>4316</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="2">
-        <v>42308</v>
+        <v>42318</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G69">
-        <v>2183705.02</v>
+        <v>239033.2</v>
       </c>
       <c r="H69">
-        <v>2183705.02</v>
+        <v>14939.575</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3314,34 +3314,34 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
-        <v>4716</v>
+        <v>4317</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>42252</v>
+        <v>42318</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G70">
-        <v>11691.32</v>
+        <v>239033.2</v>
       </c>
       <c r="H70">
-        <v>11691.32</v>
+        <v>14939.575</v>
       </c>
       <c r="I70">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3352,34 +3352,34 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>4719</v>
+        <v>4326</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>42252</v>
+        <v>42318</v>
       </c>
       <c r="D71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G71">
-        <v>11691.32</v>
+        <v>239033.2</v>
       </c>
       <c r="H71">
-        <v>11691.32</v>
+        <v>14939.575</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J71">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>4841</v>
+        <v>4327</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -3399,25 +3399,25 @@
         <v>42318</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G72">
-        <v>4835771.919999999</v>
+        <v>239033.2</v>
       </c>
       <c r="H72">
-        <v>2417885.959999999</v>
+        <v>14939.575</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J72">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3428,34 +3428,34 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>4842</v>
+        <v>4544</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="2">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G73">
-        <v>4835771.919999999</v>
+        <v>239033.2</v>
       </c>
       <c r="H73">
-        <v>2417885.959999999</v>
+        <v>14939.575</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3466,34 +3466,34 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>4851</v>
+        <v>4545</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G74">
-        <v>4835771.919999999</v>
+        <v>239033.2</v>
       </c>
       <c r="H74">
-        <v>2417885.959999999</v>
+        <v>14939.575</v>
       </c>
       <c r="I74">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3504,31 +3504,31 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>4852</v>
+        <v>4554</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G75">
-        <v>4835771.919999999</v>
+        <v>239033.2</v>
       </c>
       <c r="H75">
-        <v>2417885.959999999</v>
+        <v>14939.575</v>
       </c>
       <c r="I75">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>5095</v>
+        <v>4555</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -3551,25 +3551,25 @@
         <v>42319</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G76">
-        <v>4835771.919999999</v>
+        <v>239033.2</v>
       </c>
       <c r="H76">
-        <v>2417885.959999999</v>
+        <v>14939.575</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J76">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3580,34 +3580,34 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>5096</v>
+        <v>4778</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>42319</v>
+        <v>42320</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G77">
-        <v>4835771.919999999</v>
+        <v>239086.2349999999</v>
       </c>
       <c r="H77">
-        <v>2417885.959999999</v>
+        <v>13282.56861111111</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3618,34 +3618,34 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>5105</v>
+        <v>4779</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>42319</v>
+        <v>42320</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G78">
-        <v>4835771.919999999</v>
+        <v>239086.2349999999</v>
       </c>
       <c r="H78">
-        <v>2417885.959999999</v>
+        <v>13282.56861111111</v>
       </c>
       <c r="I78">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3656,31 +3656,31 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>5106</v>
+        <v>4788</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="2">
-        <v>42319</v>
+        <v>42320</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G79">
-        <v>4835771.919999999</v>
+        <v>239086.2349999999</v>
       </c>
       <c r="H79">
-        <v>2417885.959999999</v>
+        <v>13282.56861111111</v>
       </c>
       <c r="I79">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>5361</v>
+        <v>4789</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -3703,25 +3703,25 @@
         <v>42320</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G80">
-        <v>4836620.48</v>
+        <v>239086.2349999999</v>
       </c>
       <c r="H80">
-        <v>2418310.24</v>
+        <v>13282.56861111111</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J80">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3732,34 +3732,34 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>5362</v>
+        <v>5015</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="2">
-        <v>42320</v>
+        <v>42324</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G81">
-        <v>4836620.48</v>
+        <v>98438.47750000001</v>
       </c>
       <c r="H81">
-        <v>2418310.24</v>
+        <v>7572.190576923078</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3770,31 +3770,31 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>5371</v>
+        <v>5020</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="2">
-        <v>42320</v>
+        <v>42324</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G82">
-        <v>4836620.48</v>
+        <v>98438.47750000001</v>
       </c>
       <c r="H82">
-        <v>2418310.24</v>
+        <v>7572.190576923078</v>
       </c>
       <c r="I82">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -3808,34 +3808,34 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>5372</v>
+        <v>5148</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="2">
-        <v>42320</v>
+        <v>42325</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G83">
-        <v>4836620.48</v>
+        <v>74316.88750000001</v>
       </c>
       <c r="H83">
-        <v>2418310.24</v>
+        <v>6756.080681818183</v>
       </c>
       <c r="I83">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3846,34 +3846,34 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>5617</v>
+        <v>5149</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="2">
-        <v>42324</v>
+        <v>42325</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G84">
-        <v>2120070.7</v>
+        <v>74316.88750000001</v>
       </c>
       <c r="H84">
-        <v>2120070.7</v>
+        <v>6756.080681818183</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J84">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -3884,34 +3884,34 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>5622</v>
+        <v>5272</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="2">
-        <v>42324</v>
+        <v>42333</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G85">
-        <v>2120070.7</v>
+        <v>296041.215</v>
       </c>
       <c r="H85">
-        <v>2120070.7</v>
+        <v>11386.20057692308</v>
       </c>
       <c r="I85">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -3922,34 +3922,34 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>5760</v>
+        <v>5273</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>42325</v>
+        <v>42333</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G86">
-        <v>1617837.78</v>
+        <v>296041.215</v>
       </c>
       <c r="H86">
-        <v>1617837.78</v>
+        <v>11386.20057692308</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -3960,31 +3960,31 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>5761</v>
+        <v>5276</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>42325</v>
+        <v>42333</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G87">
-        <v>1617837.78</v>
+        <v>296041.215</v>
       </c>
       <c r="H87">
-        <v>1617837.78</v>
+        <v>11386.20057692308</v>
       </c>
       <c r="I87">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>5894</v>
+        <v>5277</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -4007,25 +4007,25 @@
         <v>42333</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G88">
-        <v>5771848.76</v>
+        <v>296041.215</v>
       </c>
       <c r="H88">
-        <v>2885924.38</v>
+        <v>11386.20057692308</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J88">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4036,34 +4036,34 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>5895</v>
+        <v>5522</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="2">
-        <v>42333</v>
+        <v>42336</v>
       </c>
       <c r="D89" t="s">
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G89">
-        <v>5771848.76</v>
+        <v>147994.09</v>
       </c>
       <c r="H89">
-        <v>2885924.38</v>
+        <v>16443.78777777778</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4074,31 +4074,31 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>5898</v>
+        <v>5524</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="2">
-        <v>42333</v>
+        <v>42336</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G90">
-        <v>5771848.76</v>
+        <v>147994.09</v>
       </c>
       <c r="H90">
-        <v>2885924.38</v>
+        <v>16443.78777777778</v>
       </c>
       <c r="I90">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4112,34 +4112,34 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>5899</v>
+        <v>5655</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="2">
-        <v>42333</v>
+        <v>42049</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G91">
-        <v>5771848.76</v>
+        <v>123778.76</v>
       </c>
       <c r="H91">
-        <v>2885924.38</v>
+        <v>8251.917333333333</v>
       </c>
       <c r="I91">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4150,34 +4150,34 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>6168</v>
+        <v>5670</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="2">
-        <v>42336</v>
+        <v>42049</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G92">
-        <v>2885500.1</v>
+        <v>123778.76</v>
       </c>
       <c r="H92">
-        <v>2885500.1</v>
+        <v>8251.917333333333</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J92">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4188,37 +4188,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>6170</v>
+        <v>5822</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="2">
-        <v>42336</v>
+        <v>42054</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G93">
-        <v>2885500.1</v>
+        <v>163951.22</v>
       </c>
       <c r="H93">
-        <v>2885500.1</v>
+        <v>4822.094705882354</v>
       </c>
       <c r="I93">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -4226,37 +4226,37 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>6312</v>
+        <v>5823</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="2">
-        <v>42049</v>
+        <v>42054</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G94">
-        <v>1970996.71</v>
+        <v>163951.22</v>
       </c>
       <c r="H94">
-        <v>1970996.71</v>
+        <v>4822.094705882354</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -4264,34 +4264,34 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>6327</v>
+        <v>5830</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>42049</v>
+        <v>42054</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G95">
-        <v>1970996.71</v>
+        <v>163951.22</v>
       </c>
       <c r="H95">
-        <v>1970996.71</v>
+        <v>4822.094705882354</v>
       </c>
       <c r="I95">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>6508</v>
+        <v>5831</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
@@ -4311,28 +4311,28 @@
         <v>42054</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G96">
-        <v>3113560.02</v>
+        <v>163951.22</v>
       </c>
       <c r="H96">
-        <v>1556780.01</v>
+        <v>4822.094705882354</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="K96">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>6509</v>
+        <v>5834</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
@@ -4349,28 +4349,28 @@
         <v>42054</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G97">
-        <v>3113560.02</v>
+        <v>163951.22</v>
       </c>
       <c r="H97">
-        <v>1556780.01</v>
+        <v>4822.094705882354</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>6516</v>
+        <v>5835</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -4387,25 +4387,25 @@
         <v>42054</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G98">
-        <v>3113560.02</v>
+        <v>163951.22</v>
       </c>
       <c r="H98">
-        <v>1556780.01</v>
+        <v>4822.094705882354</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J98">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4416,34 +4416,34 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>6517</v>
+        <v>6136</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="2">
-        <v>42054</v>
+        <v>42007</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G99">
-        <v>3113560.02</v>
+        <v>151237.13</v>
       </c>
       <c r="H99">
-        <v>1556780.01</v>
+        <v>12603.09416666667</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J99">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4454,34 +4454,34 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>6520</v>
+        <v>6144</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="2">
-        <v>42054</v>
+        <v>42007</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G100">
-        <v>3113560.02</v>
+        <v>151237.13</v>
       </c>
       <c r="H100">
-        <v>1556780.01</v>
+        <v>12603.09416666667</v>
       </c>
       <c r="I100">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4492,31 +4492,31 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>6521</v>
+        <v>6292</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="2">
-        <v>42054</v>
+        <v>42009</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G101">
-        <v>3113560.02</v>
+        <v>206344.48</v>
       </c>
       <c r="H101">
-        <v>1556780.01</v>
+        <v>12137.91058823529</v>
       </c>
       <c r="I101">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4530,34 +4530,34 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>6866</v>
+        <v>6300</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="2">
-        <v>42007</v>
+        <v>42009</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G102">
-        <v>2253088.52</v>
+        <v>206344.48</v>
       </c>
       <c r="H102">
-        <v>2253088.52</v>
+        <v>12137.91058823529</v>
       </c>
       <c r="I102">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4568,34 +4568,34 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>6874</v>
+        <v>6452</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="2">
-        <v>42007</v>
+        <v>42008</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G103">
-        <v>2253088.52</v>
+        <v>174046.97</v>
       </c>
       <c r="H103">
-        <v>2253088.52</v>
+        <v>11603.13133333333</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J103">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>7043</v>
+        <v>6460</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="2">
-        <v>42009</v>
+        <v>42008</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G104">
-        <v>3409627.89</v>
+        <v>174046.97</v>
       </c>
       <c r="H104">
-        <v>3409627.89</v>
+        <v>11603.13133333333</v>
       </c>
       <c r="I104">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4644,34 +4644,34 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>7051</v>
+        <v>6611</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="2">
-        <v>42009</v>
+        <v>42279</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F105">
         <v>1</v>
       </c>
       <c r="G105">
-        <v>3409627.89</v>
+        <v>353.57</v>
       </c>
       <c r="H105">
-        <v>3409627.89</v>
+        <v>353.57</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4682,31 +4682,31 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>7218</v>
+        <v>6715</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="2">
-        <v>42008</v>
+        <v>42016</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G106">
-        <v>2734680.12</v>
+        <v>102939.9</v>
       </c>
       <c r="H106">
-        <v>2734680.12</v>
+        <v>6055.288235294117</v>
       </c>
       <c r="I106">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -4720,34 +4720,34 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>7226</v>
+        <v>6720</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="2">
-        <v>42008</v>
+        <v>42016</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G107">
-        <v>2734680.12</v>
+        <v>102939.9</v>
       </c>
       <c r="H107">
-        <v>2734680.12</v>
+        <v>6055.288235294117</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4758,34 +4758,34 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>7392</v>
+        <v>6854</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="2">
-        <v>42279</v>
+        <v>42021</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G108">
-        <v>4949.98</v>
+        <v>58122.81</v>
       </c>
       <c r="H108">
-        <v>4949.98</v>
+        <v>3059.095263157895</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J108">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -4796,34 +4796,34 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>7502</v>
+        <v>6868</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="2">
-        <v>42016</v>
+        <v>42021</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G109">
-        <v>2020073.41</v>
+        <v>58122.81</v>
       </c>
       <c r="H109">
-        <v>2020073.41</v>
+        <v>3059.095263157895</v>
       </c>
       <c r="I109">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -4834,34 +4834,34 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>7507</v>
+        <v>7008</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="2">
-        <v>42016</v>
+        <v>42030</v>
       </c>
       <c r="D110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G110">
-        <v>2020073.41</v>
+        <v>64007.9</v>
       </c>
       <c r="H110">
-        <v>2020073.41</v>
+        <v>4571.992857142857</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J110">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -4872,34 +4872,34 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>7657</v>
+        <v>7011</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="2">
-        <v>42021</v>
+        <v>42030</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G111">
-        <v>1209847.61</v>
+        <v>64007.9</v>
       </c>
       <c r="H111">
-        <v>604923.8049999999</v>
+        <v>4571.992857142857</v>
       </c>
       <c r="I111">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -4910,28 +4910,28 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>7659</v>
+        <v>7158</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="2">
-        <v>42021</v>
+        <v>42035</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G112">
-        <v>1209847.61</v>
+        <v>88605.56</v>
       </c>
       <c r="H112">
-        <v>1209847.61</v>
+        <v>6815.812307692308</v>
       </c>
       <c r="I112">
         <v>44</v>
@@ -4948,34 +4948,34 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>7671</v>
+        <v>7192</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="2">
-        <v>42021</v>
+        <v>42035</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G113">
-        <v>1209847.61</v>
+        <v>88605.56</v>
       </c>
       <c r="H113">
-        <v>1209847.61</v>
+        <v>6815.812307692308</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -4986,34 +4986,34 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
-        <v>7825</v>
+        <v>7326</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="2">
-        <v>42030</v>
+        <v>42344</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G114">
-        <v>905175.2999999999</v>
+        <v>164586.65</v>
       </c>
       <c r="H114">
-        <v>905175.2999999999</v>
+        <v>16458.665</v>
       </c>
       <c r="I114">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5024,34 +5024,34 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1">
-        <v>7828</v>
+        <v>7425</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="2">
-        <v>42030</v>
+        <v>42355</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G115">
-        <v>905175.2999999999</v>
+        <v>71576.26999999999</v>
       </c>
       <c r="H115">
-        <v>905175.2999999999</v>
+        <v>8947.033749999999</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5062,37 +5062,37 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
-        <v>7990</v>
+        <v>7442</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="2">
-        <v>42035</v>
+        <v>42355</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G116">
-        <v>1269261.66</v>
+        <v>71576.26999999999</v>
       </c>
       <c r="H116">
-        <v>1269261.66</v>
+        <v>8947.033749999999</v>
       </c>
       <c r="I116">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -5100,34 +5100,34 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
-        <v>8024</v>
+        <v>7515</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="2">
-        <v>42035</v>
+        <v>42355</v>
       </c>
       <c r="D117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E117" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G117">
-        <v>1269261.66</v>
+        <v>71576.26999999999</v>
       </c>
       <c r="H117">
-        <v>1269261.66</v>
+        <v>8947.033749999999</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J117">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5138,34 +5138,34 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
-        <v>8171</v>
+        <v>7524</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="2">
-        <v>42344</v>
+        <v>42362</v>
       </c>
       <c r="D118" t="s">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G118">
-        <v>2960081.5</v>
+        <v>153020.28</v>
       </c>
       <c r="H118">
-        <v>2960081.5</v>
+        <v>17002.25333333334</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5176,37 +5176,37 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
-        <v>8272</v>
+        <v>7529</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="2">
-        <v>42355</v>
+        <v>42362</v>
       </c>
       <c r="D119" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G119">
-        <v>1548311.14</v>
+        <v>153020.28</v>
       </c>
       <c r="H119">
-        <v>1548311.14</v>
+        <v>17002.25333333334</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -5214,37 +5214,37 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
-        <v>8293</v>
+        <v>7537</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>42355</v>
+        <v>42362</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G120">
-        <v>1548311.14</v>
+        <v>153020.28</v>
       </c>
       <c r="H120">
-        <v>1548311.14</v>
+        <v>17002.25333333334</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J120">
         <v>0</v>
       </c>
       <c r="K120">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -5252,31 +5252,31 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
-        <v>8371</v>
+        <v>7697</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="2">
-        <v>42355</v>
+        <v>42297</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G121">
-        <v>1548311.14</v>
+        <v>50856.12</v>
       </c>
       <c r="H121">
-        <v>1548311.14</v>
+        <v>5085.612</v>
       </c>
       <c r="I121">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -5290,34 +5290,34 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1">
-        <v>8380</v>
+        <v>7698</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="2">
-        <v>42362</v>
+        <v>42297</v>
       </c>
       <c r="D122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G122">
-        <v>3271257.82</v>
+        <v>50856.12</v>
       </c>
       <c r="H122">
-        <v>3271257.82</v>
+        <v>5085.612</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J122">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -5328,37 +5328,37 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
-        <v>8385</v>
+        <v>7727</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="2">
-        <v>42362</v>
+        <v>42297</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>3271257.82</v>
+        <v>50856.12</v>
       </c>
       <c r="H123">
-        <v>3271257.82</v>
+        <v>5085.612</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K123">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -5366,34 +5366,34 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1">
-        <v>8393</v>
+        <v>7728</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="2">
-        <v>42362</v>
+        <v>42297</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G124">
-        <v>3271257.82</v>
+        <v>50856.12</v>
       </c>
       <c r="H124">
-        <v>3271257.82</v>
+        <v>5085.612</v>
       </c>
       <c r="I124">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -5404,31 +5404,31 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
-        <v>8572</v>
+        <v>7879</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="2">
-        <v>42297</v>
+        <v>42174</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G125">
-        <v>716852.2200000001</v>
+        <v>1822.48</v>
       </c>
       <c r="H125">
-        <v>358426.11</v>
+        <v>227.81</v>
       </c>
       <c r="I125">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -5442,37 +5442,37 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
-        <v>8573</v>
+        <v>7884</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="2">
-        <v>42297</v>
+        <v>42174</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G126">
-        <v>716852.2200000001</v>
+        <v>1822.48</v>
       </c>
       <c r="H126">
-        <v>358426.11</v>
+        <v>227.81</v>
       </c>
       <c r="I126">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -5480,34 +5480,34 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
-        <v>8602</v>
+        <v>8065</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="2">
-        <v>42297</v>
+        <v>42125</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G127">
-        <v>716852.2200000001</v>
+        <v>77416.70000000001</v>
       </c>
       <c r="H127">
-        <v>358426.11</v>
+        <v>7741.670000000001</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5518,34 +5518,34 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
-        <v>8603</v>
+        <v>8066</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="2">
-        <v>42297</v>
+        <v>42125</v>
       </c>
       <c r="D128" t="s">
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G128">
-        <v>716852.2200000001</v>
+        <v>77416.70000000001</v>
       </c>
       <c r="H128">
-        <v>358426.11</v>
+        <v>7741.670000000001</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -5556,34 +5556,34 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1">
-        <v>8776</v>
+        <v>8316</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="2">
-        <v>42174</v>
+        <v>42157</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>38435.75999999999</v>
+        <v>48043.57</v>
       </c>
       <c r="H129">
-        <v>38435.75999999999</v>
+        <v>24021.785</v>
       </c>
       <c r="I129">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5594,37 +5594,37 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1">
-        <v>8781</v>
+        <v>8623</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="2">
-        <v>42174</v>
+        <v>42108</v>
       </c>
       <c r="D130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G130">
-        <v>38435.75999999999</v>
+        <v>1267.4</v>
       </c>
       <c r="H130">
-        <v>38435.75999999999</v>
+        <v>316.85</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K130">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -5632,34 +5632,34 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1">
-        <v>8967</v>
+        <v>8624</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="2">
-        <v>42125</v>
+        <v>42108</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G131">
-        <v>1687861.04</v>
+        <v>1267.4</v>
       </c>
       <c r="H131">
-        <v>843930.52</v>
+        <v>316.85</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -5670,34 +5670,34 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1">
-        <v>8968</v>
+        <v>8625</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
       </c>
       <c r="C132" s="2">
-        <v>42125</v>
+        <v>42108</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G132">
-        <v>1687861.04</v>
+        <v>1267.4</v>
       </c>
       <c r="H132">
-        <v>843930.52</v>
+        <v>316.85</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -5708,34 +5708,34 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
-        <v>9240</v>
+        <v>8626</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="2">
-        <v>42157</v>
+        <v>42108</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G133">
-        <v>1030963.07</v>
+        <v>1267.4</v>
       </c>
       <c r="H133">
-        <v>1030963.07</v>
+        <v>316.85</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -5746,34 +5746,34 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <v>9552</v>
+        <v>8883</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
       </c>
       <c r="C134" s="2">
-        <v>42108</v>
+        <v>42109</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F134">
         <v>4</v>
       </c>
       <c r="G134">
-        <v>8871.799999999999</v>
+        <v>1267.4</v>
       </c>
       <c r="H134">
-        <v>2217.95</v>
+        <v>316.85</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -5784,34 +5784,34 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1">
-        <v>9553</v>
+        <v>8884</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
       </c>
       <c r="C135" s="2">
-        <v>42108</v>
+        <v>42109</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F135">
         <v>4</v>
       </c>
       <c r="G135">
-        <v>8871.799999999999</v>
+        <v>1267.4</v>
       </c>
       <c r="H135">
-        <v>2217.95</v>
+        <v>316.85</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -5822,34 +5822,34 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
-        <v>9554</v>
+        <v>8885</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136" s="2">
-        <v>42108</v>
+        <v>42109</v>
       </c>
       <c r="D136" t="s">
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F136">
         <v>4</v>
       </c>
       <c r="G136">
-        <v>8871.799999999999</v>
+        <v>1267.4</v>
       </c>
       <c r="H136">
-        <v>2217.95</v>
+        <v>316.85</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -5860,34 +5860,34 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
-        <v>9555</v>
+        <v>8886</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="2">
-        <v>42108</v>
+        <v>42109</v>
       </c>
       <c r="D137" t="s">
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F137">
         <v>4</v>
       </c>
       <c r="G137">
-        <v>8871.799999999999</v>
+        <v>1267.4</v>
       </c>
       <c r="H137">
-        <v>2217.95</v>
+        <v>316.85</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -5898,37 +5898,37 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1">
-        <v>9828</v>
+        <v>9029</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
       </c>
       <c r="C138" s="2">
-        <v>42109</v>
+        <v>42203</v>
       </c>
       <c r="D138" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>8871.799999999999</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>2217.95</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L138">
         <v>0</v>
@@ -5936,34 +5936,34 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1">
-        <v>9829</v>
+        <v>9110</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="2">
-        <v>42109</v>
+        <v>42195</v>
       </c>
       <c r="D139" t="s">
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G139">
-        <v>8871.799999999999</v>
+        <v>24083.42</v>
       </c>
       <c r="H139">
-        <v>2217.95</v>
+        <v>12041.71</v>
       </c>
       <c r="I139">
         <v>0</v>
       </c>
       <c r="J139">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -5974,34 +5974,34 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1">
-        <v>9830</v>
+        <v>9111</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="2">
-        <v>42109</v>
+        <v>42195</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G140">
-        <v>8871.799999999999</v>
+        <v>24083.42</v>
       </c>
       <c r="H140">
-        <v>2217.95</v>
+        <v>12041.71</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J140">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -6012,34 +6012,34 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
-        <v>9831</v>
+        <v>9197</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="2">
-        <v>42109</v>
+        <v>42299</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G141">
-        <v>8871.799999999999</v>
+        <v>50856.12</v>
       </c>
       <c r="H141">
-        <v>2217.95</v>
+        <v>5085.612</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J141">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -6050,37 +6050,37 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1">
-        <v>9994</v>
+        <v>9198</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
       </c>
       <c r="C142" s="2">
-        <v>42203</v>
+        <v>42299</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>50856.12</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>5085.612</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>0</v>
@@ -6088,34 +6088,34 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1">
-        <v>10079</v>
+        <v>9221</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
       </c>
       <c r="C143" s="2">
-        <v>42195</v>
+        <v>42299</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G143">
-        <v>216750.78</v>
+        <v>50856.12</v>
       </c>
       <c r="H143">
-        <v>216750.78</v>
+        <v>5085.612</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -6126,34 +6126,34 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1">
-        <v>10080</v>
+        <v>9222</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="2">
-        <v>42195</v>
+        <v>42299</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G144">
-        <v>216750.78</v>
+        <v>50856.12</v>
       </c>
       <c r="H144">
-        <v>216750.78</v>
+        <v>5085.612</v>
       </c>
       <c r="I144">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -6164,31 +6164,31 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1">
-        <v>10170</v>
+        <v>9434</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="2">
-        <v>42299</v>
+        <v>42300</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G145">
-        <v>716852.2200000001</v>
+        <v>25428.06</v>
       </c>
       <c r="H145">
-        <v>358426.11</v>
+        <v>5085.612</v>
       </c>
       <c r="I145">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -6202,34 +6202,34 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1">
-        <v>10171</v>
+        <v>9446</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="2">
-        <v>42299</v>
+        <v>42300</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G146">
-        <v>716852.2200000001</v>
+        <v>25428.06</v>
       </c>
       <c r="H146">
-        <v>358426.11</v>
+        <v>5085.612</v>
       </c>
       <c r="I146">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6240,34 +6240,34 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1">
-        <v>10194</v>
+        <v>9574</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="2">
-        <v>42299</v>
+        <v>42114</v>
       </c>
       <c r="D147" t="s">
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G147">
-        <v>716852.2200000001</v>
+        <v>1228.23</v>
       </c>
       <c r="H147">
-        <v>358426.11</v>
+        <v>409.41</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -6278,34 +6278,34 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
-        <v>10195</v>
+        <v>9625</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="2">
-        <v>42299</v>
+        <v>42127</v>
       </c>
       <c r="D148" t="s">
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G148">
-        <v>716852.2200000001</v>
+        <v>38144.07</v>
       </c>
       <c r="H148">
-        <v>358426.11</v>
+        <v>9536.0175</v>
       </c>
       <c r="I148">
         <v>0</v>
       </c>
       <c r="J148">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -6316,34 +6316,34 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
-        <v>10441</v>
+        <v>9714</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="2">
-        <v>42300</v>
+        <v>42128</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G149">
-        <v>358426.11</v>
+        <v>38144.07</v>
       </c>
       <c r="H149">
-        <v>358426.11</v>
+        <v>7628.814</v>
       </c>
       <c r="I149">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -6354,34 +6354,34 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1">
-        <v>10453</v>
+        <v>9776</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="2">
-        <v>42300</v>
+        <v>42128</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G150">
-        <v>358426.11</v>
+        <v>38144.07</v>
       </c>
       <c r="H150">
-        <v>358426.11</v>
+        <v>7628.814</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J150">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -6392,34 +6392,34 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1">
-        <v>10603</v>
+        <v>9793</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="2">
-        <v>42114</v>
+        <v>42144</v>
       </c>
       <c r="D151" t="s">
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G151">
-        <v>19367.88</v>
+        <v>96992.55000000002</v>
       </c>
       <c r="H151">
-        <v>19367.88</v>
+        <v>32330.85000000001</v>
       </c>
       <c r="I151">
         <v>0</v>
       </c>
       <c r="J151">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -6430,34 +6430,34 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1">
-        <v>10658</v>
+        <v>9911</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="2">
-        <v>42127</v>
+        <v>42170</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G152">
-        <v>836030.6</v>
+        <v>1445.36</v>
       </c>
       <c r="H152">
-        <v>836030.6</v>
+        <v>240.8933333333333</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J152">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6468,37 +6468,37 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1">
-        <v>10757</v>
+        <v>9918</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="2">
-        <v>42128</v>
+        <v>42170</v>
       </c>
       <c r="D153" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G153">
-        <v>836030.6</v>
+        <v>1445.36</v>
       </c>
       <c r="H153">
-        <v>836030.6</v>
+        <v>240.8933333333333</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L153">
         <v>0</v>
@@ -6506,31 +6506,31 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1">
-        <v>10823</v>
+        <v>9979</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="2">
-        <v>42128</v>
+        <v>42171</v>
       </c>
       <c r="D154" t="s">
         <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G154">
-        <v>836030.6</v>
+        <v>1445.36</v>
       </c>
       <c r="H154">
-        <v>836030.6</v>
+        <v>240.8933333333333</v>
       </c>
       <c r="I154">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -6544,37 +6544,37 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1">
-        <v>10841</v>
+        <v>9985</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="2">
-        <v>42144</v>
+        <v>42171</v>
       </c>
       <c r="D155" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G155">
-        <v>2096371.77</v>
+        <v>1445.36</v>
       </c>
       <c r="H155">
-        <v>2096371.77</v>
+        <v>240.8933333333333</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L155">
         <v>0</v>
@@ -6582,34 +6582,34 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1">
-        <v>10967</v>
+        <v>10057</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="2">
-        <v>42170</v>
+        <v>42213</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156">
-        <v>32401.84</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>32401.84</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -6620,37 +6620,37 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1">
-        <v>10974</v>
+        <v>10058</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
       </c>
       <c r="C157" s="2">
-        <v>42170</v>
+        <v>42213</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157">
-        <v>32401.84</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>32401.84</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K157">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L157">
         <v>0</v>
@@ -6658,34 +6658,34 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1">
-        <v>11039</v>
+        <v>10217</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="2">
-        <v>42171</v>
+        <v>42215</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G158">
-        <v>32401.84</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>32401.84</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -6696,37 +6696,37 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="1">
-        <v>11045</v>
+        <v>10259</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="2">
-        <v>42171</v>
+        <v>42215</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G159">
-        <v>32401.84</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>32401.84</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L159">
         <v>0</v>
@@ -6734,34 +6734,34 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1">
-        <v>11121</v>
+        <v>10322</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="2">
-        <v>42213</v>
+        <v>42233</v>
       </c>
       <c r="D160" t="s">
         <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F160">
         <v>2</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>17010</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>8505</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -6772,34 +6772,34 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="1">
-        <v>11122</v>
+        <v>10441</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="2">
-        <v>42213</v>
+        <v>42234</v>
       </c>
       <c r="D161" t="s">
         <v>12</v>
       </c>
       <c r="E161" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>17010</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2835</v>
       </c>
       <c r="I161">
         <v>0</v>
       </c>
       <c r="J161">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -6810,34 +6810,34 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="1">
-        <v>11317</v>
+        <v>10526</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" s="2">
-        <v>42215</v>
+        <v>42234</v>
       </c>
       <c r="D162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>17010</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2835</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J162">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -6848,34 +6848,34 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="1">
-        <v>11368</v>
+        <v>10563</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
       </c>
       <c r="C163" s="2">
-        <v>42215</v>
+        <v>42235</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E163" t="s">
         <v>22</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>17010</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>4252.5</v>
       </c>
       <c r="I163">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -6886,34 +6886,34 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="1">
-        <v>11443</v>
+        <v>10587</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
       </c>
       <c r="C164" s="2">
-        <v>42233</v>
+        <v>42235</v>
       </c>
       <c r="D164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G164">
-        <v>350280</v>
+        <v>17010</v>
       </c>
       <c r="H164">
-        <v>350280</v>
+        <v>4252.5</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J164">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -6924,34 +6924,34 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="1">
-        <v>11573</v>
+        <v>10678</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="2">
-        <v>42234</v>
+        <v>42243</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G165">
-        <v>350280</v>
+        <v>11010</v>
       </c>
       <c r="H165">
-        <v>350280</v>
+        <v>786.4285714285714</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -6962,31 +6962,31 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="1">
-        <v>11664</v>
+        <v>10686</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="2">
-        <v>42234</v>
+        <v>42243</v>
       </c>
       <c r="D166" t="s">
         <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G166">
-        <v>350280</v>
+        <v>11010</v>
       </c>
       <c r="H166">
-        <v>350280</v>
+        <v>786.4285714285714</v>
       </c>
       <c r="I166">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -7000,34 +7000,34 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="1">
-        <v>11704</v>
+        <v>10799</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
       </c>
       <c r="C167" s="2">
-        <v>42235</v>
+        <v>42244</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G167">
-        <v>350280</v>
+        <v>11410.71</v>
       </c>
       <c r="H167">
-        <v>350280</v>
+        <v>760.7139999999999</v>
       </c>
       <c r="I167">
         <v>0</v>
       </c>
       <c r="J167">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -7038,31 +7038,31 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="1">
-        <v>11731</v>
+        <v>10804</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
       </c>
       <c r="C168" s="2">
-        <v>42235</v>
+        <v>42244</v>
       </c>
       <c r="D168" t="s">
         <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G168">
-        <v>350280</v>
+        <v>11410.71</v>
       </c>
       <c r="H168">
-        <v>350280</v>
+        <v>760.7139999999999</v>
       </c>
       <c r="I168">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J168">
         <v>0</v>
@@ -7076,34 +7076,34 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="1">
-        <v>11832</v>
+        <v>10922</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
       </c>
       <c r="C169" s="2">
-        <v>42243</v>
+        <v>42245</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G169">
-        <v>308280</v>
+        <v>11787.85</v>
       </c>
       <c r="H169">
-        <v>308280</v>
+        <v>2946.9625</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -7114,31 +7114,31 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="1">
-        <v>11840</v>
+        <v>10927</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
       </c>
       <c r="C170" s="2">
-        <v>42243</v>
+        <v>42245</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G170">
-        <v>308280</v>
+        <v>11787.85</v>
       </c>
       <c r="H170">
-        <v>308280</v>
+        <v>2946.9625</v>
       </c>
       <c r="I170">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7152,34 +7152,34 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="1">
-        <v>11958</v>
+        <v>11148</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
       </c>
       <c r="C171" s="2">
-        <v>42244</v>
+        <v>42270</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G171">
-        <v>314691.36</v>
+        <v>353.57</v>
       </c>
       <c r="H171">
-        <v>314691.36</v>
+        <v>35.357</v>
       </c>
       <c r="I171">
         <v>0</v>
       </c>
       <c r="J171">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -7190,34 +7190,34 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="1">
-        <v>11963</v>
+        <v>11276</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
       </c>
       <c r="C172" s="2">
-        <v>42244</v>
+        <v>42271</v>
       </c>
       <c r="D172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G172">
-        <v>314691.36</v>
+        <v>353.57</v>
       </c>
       <c r="H172">
-        <v>314691.36</v>
+        <v>35.357</v>
       </c>
       <c r="I172">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -7228,34 +7228,34 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="1">
-        <v>12088</v>
+        <v>11431</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
       </c>
       <c r="C173" s="2">
-        <v>42245</v>
+        <v>42272</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
       <c r="G173">
-        <v>319971.32</v>
+        <v>353.57</v>
       </c>
       <c r="H173">
-        <v>319971.32</v>
+        <v>353.57</v>
       </c>
       <c r="I173">
         <v>0</v>
       </c>
       <c r="J173">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -7266,31 +7266,31 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="1">
-        <v>12093</v>
+        <v>11545</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
       </c>
       <c r="C174" s="2">
-        <v>42245</v>
+        <v>42289</v>
       </c>
       <c r="D174" t="s">
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G174">
-        <v>319971.32</v>
+        <v>347.61</v>
       </c>
       <c r="H174">
-        <v>319971.32</v>
+        <v>115.87</v>
       </c>
       <c r="I174">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -7304,34 +7304,34 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="1">
-        <v>12328</v>
+        <v>11598</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
       </c>
       <c r="C175" s="2">
-        <v>42270</v>
+        <v>42289</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G175">
-        <v>4949.98</v>
+        <v>347.61</v>
       </c>
       <c r="H175">
-        <v>4949.98</v>
+        <v>115.87</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -7342,34 +7342,34 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="1">
-        <v>12468</v>
+        <v>11620</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
       </c>
       <c r="C176" s="2">
-        <v>42271</v>
+        <v>42290</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G176">
-        <v>4949.98</v>
+        <v>347.61</v>
       </c>
       <c r="H176">
-        <v>4949.98</v>
+        <v>115.87</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J176">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -7380,34 +7380,34 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="1">
-        <v>12634</v>
+        <v>11687</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
       </c>
       <c r="C177" s="2">
-        <v>42272</v>
+        <v>42290</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G177">
-        <v>4949.98</v>
+        <v>347.61</v>
       </c>
       <c r="H177">
-        <v>4949.98</v>
+        <v>115.87</v>
       </c>
       <c r="I177">
         <v>0</v>
       </c>
       <c r="J177">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -7418,31 +7418,31 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="1">
-        <v>12756</v>
+        <v>11711</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
       </c>
       <c r="C178" s="2">
-        <v>42289</v>
+        <v>42298</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G178">
-        <v>7299.81</v>
+        <v>50856.12</v>
       </c>
       <c r="H178">
-        <v>7299.81</v>
+        <v>5085.612</v>
       </c>
       <c r="I178">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -7456,34 +7456,34 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="1">
-        <v>12812</v>
+        <v>11712</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
       </c>
       <c r="C179" s="2">
-        <v>42289</v>
+        <v>42298</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E179" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G179">
-        <v>7299.81</v>
+        <v>50856.12</v>
       </c>
       <c r="H179">
-        <v>7299.81</v>
+        <v>5085.612</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J179">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -7494,34 +7494,34 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="1">
-        <v>12834</v>
+        <v>11739</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
       </c>
       <c r="C180" s="2">
-        <v>42290</v>
+        <v>42298</v>
       </c>
       <c r="D180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G180">
-        <v>7299.81</v>
+        <v>50856.12</v>
       </c>
       <c r="H180">
-        <v>7299.81</v>
+        <v>5085.612</v>
       </c>
       <c r="I180">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -7532,34 +7532,34 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="1">
-        <v>12906</v>
+        <v>11740</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
       </c>
       <c r="C181" s="2">
-        <v>42290</v>
+        <v>42298</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G181">
-        <v>7299.81</v>
+        <v>50856.12</v>
       </c>
       <c r="H181">
-        <v>7299.81</v>
+        <v>5085.612</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -7570,31 +7570,31 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="1">
-        <v>12930</v>
+        <v>11947</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
       </c>
       <c r="C182" s="2">
-        <v>42298</v>
+        <v>42301</v>
       </c>
       <c r="D182" t="s">
         <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G182">
-        <v>716852.2200000001</v>
+        <v>50856.12</v>
       </c>
       <c r="H182">
-        <v>358426.11</v>
+        <v>4238.01</v>
       </c>
       <c r="I182">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -7608,31 +7608,31 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="1">
-        <v>12931</v>
+        <v>11948</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
       </c>
       <c r="C183" s="2">
-        <v>42298</v>
+        <v>42301</v>
       </c>
       <c r="D183" t="s">
         <v>13</v>
       </c>
       <c r="E183" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G183">
-        <v>716852.2200000001</v>
+        <v>50856.12</v>
       </c>
       <c r="H183">
-        <v>358426.11</v>
+        <v>4238.01</v>
       </c>
       <c r="I183">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -7646,34 +7646,34 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="1">
-        <v>12958</v>
+        <v>11967</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
       </c>
       <c r="C184" s="2">
-        <v>42298</v>
+        <v>42301</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
       </c>
       <c r="E184" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G184">
-        <v>716852.2200000001</v>
+        <v>50856.12</v>
       </c>
       <c r="H184">
-        <v>358426.11</v>
+        <v>4238.01</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -7684,34 +7684,34 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="1">
-        <v>12959</v>
+        <v>11968</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
       </c>
       <c r="C185" s="2">
-        <v>42298</v>
+        <v>42301</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
       </c>
       <c r="E185" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G185">
-        <v>716852.2200000001</v>
+        <v>50856.12</v>
       </c>
       <c r="H185">
-        <v>358426.11</v>
+        <v>4238.01</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -7722,31 +7722,31 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="1">
-        <v>13196</v>
+        <v>12210</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
       </c>
       <c r="C186" s="2">
-        <v>42301</v>
+        <v>42302</v>
       </c>
       <c r="D186" t="s">
         <v>13</v>
       </c>
       <c r="E186" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G186">
-        <v>716852.2200000001</v>
+        <v>25080.45</v>
       </c>
       <c r="H186">
-        <v>358426.11</v>
+        <v>6270.1125</v>
       </c>
       <c r="I186">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -7760,34 +7760,34 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="1">
-        <v>13197</v>
+        <v>12219</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
       </c>
       <c r="C187" s="2">
-        <v>42301</v>
+        <v>42302</v>
       </c>
       <c r="D187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E187" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G187">
-        <v>716852.2200000001</v>
+        <v>25080.45</v>
       </c>
       <c r="H187">
-        <v>358426.11</v>
+        <v>6270.1125</v>
       </c>
       <c r="I187">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -7798,34 +7798,34 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="1">
-        <v>13216</v>
+        <v>12319</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
       </c>
       <c r="C188" s="2">
-        <v>42301</v>
+        <v>42309</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E188" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G188">
-        <v>716852.2200000001</v>
+        <v>271723.06</v>
       </c>
       <c r="H188">
-        <v>358426.11</v>
+        <v>19408.79</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J188">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -7836,34 +7836,34 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="1">
-        <v>13217</v>
+        <v>12320</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="2">
-        <v>42301</v>
+        <v>42309</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G189">
-        <v>716852.2200000001</v>
+        <v>271723.06</v>
       </c>
       <c r="H189">
-        <v>358426.11</v>
+        <v>19408.79</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J189">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -7874,34 +7874,34 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="1">
-        <v>13499</v>
+        <v>12345</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
       </c>
       <c r="C190" s="2">
-        <v>42302</v>
+        <v>42309</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E190" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G190">
-        <v>351126.3</v>
+        <v>271723.06</v>
       </c>
       <c r="H190">
-        <v>351126.3</v>
+        <v>19408.79</v>
       </c>
       <c r="I190">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -7912,191 +7912,39 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="1">
-        <v>13508</v>
+        <v>12346</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
       </c>
       <c r="C191" s="2">
-        <v>42302</v>
+        <v>42309</v>
       </c>
       <c r="D191" t="s">
         <v>12</v>
       </c>
       <c r="E191" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G191">
-        <v>351126.3</v>
+        <v>271723.06</v>
       </c>
       <c r="H191">
-        <v>351126.3</v>
+        <v>19408.79</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="K191">
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
-      <c r="A192" s="1">
-        <v>13622</v>
-      </c>
-      <c r="B192" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D192" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" t="s">
-        <v>102</v>
-      </c>
-      <c r="F192">
-        <v>2</v>
-      </c>
-      <c r="G192">
-        <v>4982351.920000001</v>
-      </c>
-      <c r="H192">
-        <v>2491175.96</v>
-      </c>
-      <c r="I192">
-        <v>36</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <v>0</v>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
-      <c r="A193" s="1">
-        <v>13623</v>
-      </c>
-      <c r="B193" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D193" t="s">
-        <v>13</v>
-      </c>
-      <c r="E193" t="s">
-        <v>103</v>
-      </c>
-      <c r="F193">
-        <v>2</v>
-      </c>
-      <c r="G193">
-        <v>4982351.920000001</v>
-      </c>
-      <c r="H193">
-        <v>2491175.96</v>
-      </c>
-      <c r="I193">
-        <v>36</v>
-      </c>
-      <c r="J193">
-        <v>0</v>
-      </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
-      <c r="A194" s="1">
-        <v>13652</v>
-      </c>
-      <c r="B194" t="s">
-        <v>11</v>
-      </c>
-      <c r="C194" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D194" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" t="s">
-        <v>102</v>
-      </c>
-      <c r="F194">
-        <v>2</v>
-      </c>
-      <c r="G194">
-        <v>4982351.920000001</v>
-      </c>
-      <c r="H194">
-        <v>2491175.96</v>
-      </c>
-      <c r="I194">
-        <v>0</v>
-      </c>
-      <c r="J194">
-        <v>124</v>
-      </c>
-      <c r="K194">
-        <v>0</v>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
-      <c r="A195" s="1">
-        <v>13653</v>
-      </c>
-      <c r="B195" t="s">
-        <v>11</v>
-      </c>
-      <c r="C195" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D195" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" t="s">
-        <v>103</v>
-      </c>
-      <c r="F195">
-        <v>2</v>
-      </c>
-      <c r="G195">
-        <v>4982351.920000001</v>
-      </c>
-      <c r="H195">
-        <v>2491175.96</v>
-      </c>
-      <c r="I195">
-        <v>0</v>
-      </c>
-      <c r="J195">
-        <v>124</v>
-      </c>
-      <c r="K195">
-        <v>0</v>
-      </c>
-      <c r="L195">
         <v>0</v>
       </c>
     </row>
